--- a/CURSOS-BB.xlsx
+++ b/CURSOS-BB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/lucasycosta_bb_com_br/Documents/LUCAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/lucasycosta_bb_com_br/Documents/LUCAS/10-ARQUIVOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2458A189-865B-428C-8E4B-9CD577B6C8D5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F157B8-0E9D-4C9D-A3EE-E40ADD54ED26}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7418A52-45B6-44AB-A7B5-ACFBA5DADF39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>APRENDIZADO CONTINUO: DESENVOL</t>
   </si>
@@ -345,6 +345,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,7 +671,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +708,9 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="1">
         <v>200843</v>
       </c>
@@ -754,7 +760,9 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1">
         <v>201617</v>
       </c>
@@ -854,7 +862,9 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="1">
         <v>202190</v>
       </c>
@@ -879,7 +889,9 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="2">
         <v>204057</v>
       </c>
@@ -913,7 +925,9 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="2">
         <v>203386</v>
       </c>
@@ -998,14 +1012,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>12130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="1">
         <v>202782</v>
       </c>

--- a/CURSOS-BB.xlsx
+++ b/CURSOS-BB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/lucasycosta_bb_com_br/Documents/LUCAS/10-ARQUIVOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F157B8-0E9D-4C9D-A3EE-E40ADD54ED26}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F26C42-C8FF-4F15-A454-75ADB2F679D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7418A52-45B6-44AB-A7B5-ACFBA5DADF39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>APRENDIZADO CONTINUO: DESENVOL</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>CURSOS INTERNOS - ASS II</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -316,11 +319,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,7 +694,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +740,9 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="1">
         <v>204038</v>
       </c>
@@ -744,7 +769,9 @@
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="2">
         <v>202745</v>
       </c>
@@ -769,7 +796,9 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="1">
         <v>202438</v>
       </c>
@@ -794,7 +823,9 @@
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="2">
         <v>202678</v>
       </c>
@@ -819,7 +850,9 @@
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="1">
         <v>204200</v>
       </c>
@@ -844,7 +877,9 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="2">
         <v>204268</v>
       </c>
@@ -1140,7 +1175,9 @@
       <c r="K29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J30" s="2">
@@ -1189,23 +1226,32 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"..."</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"..."</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17 H3:H9 L3:L33" xr:uid="{B81B51CF-BA0F-4D38-A98B-AE74E7C24A47}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{B81B51CF-BA0F-4D38-A98B-AE74E7C24A47}">
       <formula1>"OK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9 L3:L33" xr:uid="{6638C9F4-E504-450B-BE13-81AD2C8E8353}">
+      <formula1>"OK, ..."</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/CURSOS-BB.xlsx
+++ b/CURSOS-BB.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/lucasycosta_bb_com_br/Documents/LUCAS/10-ARQUIVOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F26C42-C8FF-4F15-A454-75ADB2F679D2}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{91246EB3-6C9A-4357-A8CD-2523DBF9C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77938ABE-45D5-4E06-A762-2C6B1F6186C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7418A52-45B6-44AB-A7B5-ACFBA5DADF39}"/>
   </bookViews>
   <sheets>
-    <sheet name="cursos a fazer" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>APRENDIZADO CONTINUO: DESENVOL</t>
   </si>
@@ -206,7 +206,13 @@
     <t>CURSOS INTERNOS - ASS II</t>
   </si>
   <si>
-    <t>...</t>
+    <t>CURSOS INTERNOS - ASS III 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA COLLECTIONS </t>
+  </si>
+  <si>
+    <t>PROGRAMA JORNADA DE TRABALHO</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,11 +290,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,11 +345,60 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -344,16 +436,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -691,63 +773,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8193B12-9906-4945-B59E-A91F8D131C6E}">
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="61.5546875" customWidth="1"/>
-    <col min="11" max="11" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
+        <v>200843</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
         <v>203862</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
         <v>200843</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>204038</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>15</v>
@@ -755,136 +837,144 @@
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
+        <v>200612</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
         <v>13181</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
         <v>200612</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>202745</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
+        <v>201617</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
         <v>13901</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
         <v>201617</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>202438</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
+        <v>201720</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
         <v>13536</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
         <v>201720</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>202678</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>201721</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
         <v>12498</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
         <v>201721</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="1">
-        <v>204200</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
+        <v>3058</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
         <v>11382</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
         <v>3058</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="2">
-        <v>204268</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
@@ -892,353 +982,456 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
+        <v>202190</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
         <v>13689</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
         <v>202190</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="1">
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>204077</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>200344</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="1">
+        <v>13027</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5647</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>204038</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14068</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>202745</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="1">
+        <v>11436</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>202438</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2">
+        <v>201824</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>202678</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="1">
+        <v>11390</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>204200</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="2">
+        <v>13151</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>204268</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12130</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>204561</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>204077</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
         <v>204057</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>13027</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>2973</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>14068</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>203386</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>11436</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
         <v>203624</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>201824</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
         <v>204192</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>11390</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
         <v>202887</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>13151</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>202914</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>12130</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <v>202782</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="2">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
         <v>202483</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="1">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
         <v>202516</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J20" s="2">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>202420</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J21" s="1">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
         <v>201709</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J22" s="2">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
         <v>204556</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J23" s="1">
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
         <v>204557</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J24" s="2">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>204555</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J25" s="1">
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
         <v>202255</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J26" s="2">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
         <v>202307</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J27" s="1">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
         <v>7110</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J28" s="2">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>7112</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J29" s="1">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
         <v>3058</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J30" s="2">
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
         <v>5609</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J31" s="1">
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
         <v>203392</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J32" s="2">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
         <v>202225</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
-      <c r="J33" s="1">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
         <v>201909</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D17">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="D3:D9">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"..."</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="D12:D42">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"..."</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L33">
+  <conditionalFormatting sqref="H3:H17">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"..."</formula>
     </cfRule>
@@ -1247,14 +1440,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{B81B51CF-BA0F-4D38-A98B-AE74E7C24A47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H17" xr:uid="{B81B51CF-BA0F-4D38-A98B-AE74E7C24A47}">
       <formula1>"OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9 L3:L33" xr:uid="{6638C9F4-E504-450B-BE13-81AD2C8E8353}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9 D12:D42 L3:L11" xr:uid="{6638C9F4-E504-450B-BE13-81AD2C8E8353}">
       <formula1>"OK, ..."</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 #interna&amp;1#_x000D_</oddHeader>
   </headerFooter>
